--- a/Reports/financial_statements_summary.xlsx
+++ b/Reports/financial_statements_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iese365-my.sharepoint.com/personal/harel_lichtenstein_iese_net/Documents/Desktop/IESE/EMBA 2026/Term 5/Executive Management Simulation - B-E1/Session 1/Report Samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iese365-my.sharepoint.com/personal/harel_lichtenstein_iese_net/Documents/Desktop/AI Tests/EXSIM models/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F4752650-3EBF-4F6D-96A6-F993D16963BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5341372-8608-4506-B637-64027161B01A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F4752650-3EBF-4F6D-96A6-F993D16963BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8086D32-C76B-4A20-BD29-20AEF5A42C0B}"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="2325" windowWidth="26400" windowHeight="18030" xr2:uid="{FEBCF030-B7FA-4FBA-8360-2566E0CAADF0}"/>
+    <workbookView xWindow="21285" yWindow="1200" windowWidth="26400" windowHeight="18030" xr2:uid="{FEBCF030-B7FA-4FBA-8360-2566E0CAADF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -841,8 +841,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1231,46 +1231,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1618,13 +1618,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1955,13 +1955,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
